--- a/config_sim_data/wiebull/result_all.xlsx
+++ b/config_sim_data/wiebull/result_all.xlsx
@@ -534,22 +534,22 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0001975142294700092</v>
+        <v>3.98404921902253e-05</v>
       </c>
       <c r="F3" t="n">
         <v>7.289016755011029</v>
       </c>
       <c r="G3" t="n">
-        <v>7.289214269240499</v>
+        <v>7.288976914518838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002373547216602345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1.284572587014378</v>
       </c>
       <c r="J3" t="n">
-        <v>1.284335232292718</v>
+        <v>1.284572587014378</v>
       </c>
     </row>
     <row r="4">
@@ -606,22 +606,22 @@
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002732648023330704</v>
+        <v>0.002299461433131519</v>
       </c>
       <c r="F5" t="n">
-        <v>6.969706873653455</v>
+        <v>6.95450358750535</v>
       </c>
       <c r="G5" t="n">
-        <v>6.966974225630124</v>
+        <v>6.952204126072218</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.002692807531140479</v>
+        <v>-0.002259620940941293</v>
       </c>
       <c r="I5" t="n">
-        <v>1.603882468371952</v>
+        <v>1.619085754520057</v>
       </c>
       <c r="J5" t="n">
-        <v>1.606575275903093</v>
+        <v>1.621345375460998</v>
       </c>
     </row>
     <row r="6">
@@ -642,22 +642,22 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002612928602672621</v>
+        <v>0.002317269863326244</v>
       </c>
       <c r="F6" t="n">
-        <v>6.965357946364461</v>
+        <v>6.948671099657716</v>
       </c>
       <c r="G6" t="n">
-        <v>6.962745017761788</v>
+        <v>6.94635382979439</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.002573088110482396</v>
+        <v>-0.002277429371136019</v>
       </c>
       <c r="I6" t="n">
-        <v>1.608231395660946</v>
+        <v>1.624918242367691</v>
       </c>
       <c r="J6" t="n">
-        <v>1.610804483771428</v>
+        <v>1.627195671738827</v>
       </c>
     </row>
     <row r="7">
@@ -678,22 +678,22 @@
         <v>500</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004773428343717641</v>
+        <v>0.0007505769243540314</v>
       </c>
       <c r="F7" t="n">
         <v>7.289016755011029</v>
       </c>
       <c r="G7" t="n">
-        <v>7.288539412176657</v>
+        <v>7.288266178086675</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0004375023421815388</v>
+        <v>-0.0007107364321638062</v>
       </c>
       <c r="I7" t="n">
         <v>1.284572587014378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.285010089356559</v>
+        <v>1.285283323446541</v>
       </c>
     </row>
     <row r="8">
@@ -714,22 +714,22 @@
         <v>3000</v>
       </c>
       <c r="E8" t="n">
-        <v>5.073154021148171e-05</v>
+        <v>-0.0003052793589234692</v>
       </c>
       <c r="F8" t="n">
         <v>7.289016755011029</v>
       </c>
       <c r="G8" t="n">
-        <v>7.288966023470818</v>
+        <v>7.289322034369953</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.089104802125641e-05</v>
+        <v>0.0003451198511136945</v>
       </c>
       <c r="I8" t="n">
         <v>1.284572587014378</v>
       </c>
       <c r="J8" t="n">
-        <v>1.284583478062399</v>
+        <v>1.284227467163264</v>
       </c>
     </row>
     <row r="9">
@@ -750,22 +750,22 @@
         <v>3000</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002912702969884126</v>
+        <v>0.0003119769418099838</v>
       </c>
       <c r="F9" t="n">
-        <v>7.043326288896034</v>
+        <v>7.046577057037879</v>
       </c>
       <c r="G9" t="n">
-        <v>7.043035018599046</v>
+        <v>7.046265080096068</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0002514298047981874</v>
+        <v>-0.0002721364496197586</v>
       </c>
       <c r="I9" t="n">
-        <v>1.530263053129373</v>
+        <v>1.527012284987529</v>
       </c>
       <c r="J9" t="n">
-        <v>1.530514482934171</v>
+        <v>1.527284421437148</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +774,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,22 +786,22 @@
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0004755372366742662</v>
+        <v>0.1861485854035347</v>
       </c>
       <c r="F10" t="n">
-        <v>8.661178960255624</v>
+        <v>1.540117552225871</v>
       </c>
       <c r="G10" t="n">
-        <v>8.661654497492298</v>
+        <v>1.353968966822336</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0004851156038446769</v>
+        <v>-0.0757415400208053</v>
       </c>
       <c r="I10" t="n">
-        <v>3.83060414230888</v>
+        <v>0.03333918659404222</v>
       </c>
       <c r="J10" t="n">
-        <v>3.830119026705036</v>
+        <v>0.1090807266148475</v>
       </c>
     </row>
     <row r="11">
@@ -810,7 +810,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -822,22 +822,22 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0006535855968433137</v>
+        <v>0.1861485854035347</v>
       </c>
       <c r="F11" t="n">
-        <v>8.661178960255624</v>
+        <v>1.540053186911655</v>
       </c>
       <c r="G11" t="n">
-        <v>8.661832545852468</v>
+        <v>1.35390460150812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006631639640137243</v>
+        <v>-0.0757415400208053</v>
       </c>
       <c r="I11" t="n">
-        <v>3.83060414230888</v>
+        <v>0.03340355190825828</v>
       </c>
       <c r="J11" t="n">
-        <v>3.829940978344867</v>
+        <v>0.1091450919290635</v>
       </c>
     </row>
     <row r="12">
@@ -846,7 +846,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -858,22 +858,22 @@
         <v>500</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0003510176577595827</v>
+        <v>0.1861485854035347</v>
       </c>
       <c r="F12" t="n">
-        <v>8.661178960255624</v>
+        <v>1.538429251122259</v>
       </c>
       <c r="G12" t="n">
-        <v>8.661529977913384</v>
+        <v>1.352280665718724</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003605960249299933</v>
+        <v>-0.0757415400208053</v>
       </c>
       <c r="I12" t="n">
-        <v>3.83060414230888</v>
+        <v>0.03502748769765418</v>
       </c>
       <c r="J12" t="n">
-        <v>3.830243546283951</v>
+        <v>0.1107690277184594</v>
       </c>
     </row>
     <row r="13">
@@ -882,7 +882,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -894,22 +894,22 @@
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0001237105366367166</v>
+        <v>0.1861485854035347</v>
       </c>
       <c r="F13" t="n">
-        <v>8.591311494067263</v>
+        <v>1.497547180176626</v>
       </c>
       <c r="G13" t="n">
-        <v>8.591435204603899</v>
+        <v>1.311398594773091</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001332889038071272</v>
+        <v>-0.0757415400208053</v>
       </c>
       <c r="I13" t="n">
-        <v>3.900471608497242</v>
+        <v>0.07590955864328719</v>
       </c>
       <c r="J13" t="n">
-        <v>3.900338319593436</v>
+        <v>0.1516510986640924</v>
       </c>
     </row>
     <row r="14">
@@ -918,7 +918,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -930,22 +930,22 @@
         <v>100</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0001862730708876437</v>
+        <v>0.2480291218712956</v>
       </c>
       <c r="F14" t="n">
-        <v>8.592395755480402</v>
+        <v>1.503522748249252</v>
       </c>
       <c r="G14" t="n">
-        <v>8.592582028551289</v>
+        <v>1.255493626377957</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001958514380580543</v>
+        <v>-0.1376220764885661</v>
       </c>
       <c r="I14" t="n">
-        <v>3.899387347084103</v>
+        <v>0.06993399057066063</v>
       </c>
       <c r="J14" t="n">
-        <v>3.899191495646045</v>
+        <v>0.2075560670592267</v>
       </c>
     </row>
     <row r="15">
@@ -954,7 +954,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -966,22 +966,22 @@
         <v>500</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001350066607807322</v>
+        <v>0.2460734567285914</v>
       </c>
       <c r="F15" t="n">
-        <v>8.601825739755796</v>
+        <v>1.505516448969848</v>
       </c>
       <c r="G15" t="n">
-        <v>8.601690733095015</v>
+        <v>1.259442992241257</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0001254282936103216</v>
+        <v>-0.135666411345862</v>
       </c>
       <c r="I15" t="n">
-        <v>3.889957362808708</v>
+        <v>0.06794028985006495</v>
       </c>
       <c r="J15" t="n">
-        <v>3.890082791102319</v>
+        <v>0.2036067011959268</v>
       </c>
     </row>
     <row r="16">
@@ -990,7 +990,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -999,25 +999,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0008896016498924955</v>
+        <v>0.195488292110269</v>
       </c>
       <c r="F16" t="n">
-        <v>8.661178960255624</v>
+        <v>1.53930651525511</v>
       </c>
       <c r="G16" t="n">
-        <v>8.662068561905517</v>
+        <v>1.343818223144841</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008991800170629061</v>
+        <v>-0.08508124672753961</v>
       </c>
       <c r="I16" t="n">
-        <v>3.83060414230888</v>
+        <v>0.03415022356480257</v>
       </c>
       <c r="J16" t="n">
-        <v>3.829704962291817</v>
+        <v>0.119231470292342</v>
       </c>
     </row>
     <row r="17">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wiebullshape1n50000_re.pkl</t>
+          <t>wiebullshape5n10000_re.pkl</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1035,25 +1035,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="E17" t="n">
-        <v>4.401019474842757e-05</v>
+        <v>0.2005364199800207</v>
       </c>
       <c r="F17" t="n">
-        <v>8.575125100422717</v>
+        <v>1.507792555399005</v>
       </c>
       <c r="G17" t="n">
-        <v>8.575081090227968</v>
+        <v>1.307256135418984</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.443182757801691e-05</v>
+        <v>-0.09012937459729128</v>
       </c>
       <c r="I17" t="n">
-        <v>3.916658002141787</v>
+        <v>0.06566418342090796</v>
       </c>
       <c r="J17" t="n">
-        <v>3.916692433969367</v>
+        <v>0.1557935580181993</v>
       </c>
     </row>
     <row r="18">
@@ -1074,22 +1074,22 @@
         <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0004755372366742662</v>
+        <v>-0.001006712145156135</v>
       </c>
       <c r="F18" t="n">
         <v>8.661178960255624</v>
       </c>
       <c r="G18" t="n">
-        <v>8.661654497492298</v>
+        <v>8.66218567240078</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0004851156038446769</v>
+        <v>0.001016290512326545</v>
       </c>
       <c r="I18" t="n">
         <v>3.83060414230888</v>
       </c>
       <c r="J18" t="n">
-        <v>3.830119026705036</v>
+        <v>3.829587851796555</v>
       </c>
     </row>
     <row r="19">
@@ -1110,22 +1110,22 @@
         <v>100</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0006535855968433137</v>
+        <v>-0.000127972566279171</v>
       </c>
       <c r="F19" t="n">
         <v>8.661178960255624</v>
       </c>
       <c r="G19" t="n">
-        <v>8.661832545852468</v>
+        <v>8.661306932821903</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0006631639640137243</v>
+        <v>0.0001375509334495817</v>
       </c>
       <c r="I19" t="n">
         <v>3.83060414230888</v>
       </c>
       <c r="J19" t="n">
-        <v>3.829940978344867</v>
+        <v>3.830466591375432</v>
       </c>
     </row>
     <row r="20">
@@ -1146,22 +1146,22 @@
         <v>500</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0003510176577595827</v>
+        <v>-0.0005842774371548944</v>
       </c>
       <c r="F20" t="n">
         <v>8.661178960255624</v>
       </c>
       <c r="G20" t="n">
-        <v>8.661529977913384</v>
+        <v>8.661763237692778</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0003605960249299933</v>
+        <v>0.000593855804325305</v>
       </c>
       <c r="I20" t="n">
         <v>3.83060414230888</v>
       </c>
       <c r="J20" t="n">
-        <v>3.830243546283951</v>
+        <v>3.830010286504557</v>
       </c>
     </row>
     <row r="21">
@@ -1182,22 +1182,22 @@
         <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0001237105366367166</v>
+        <v>0.0005455901033598338</v>
       </c>
       <c r="F21" t="n">
-        <v>8.591311494067263</v>
+        <v>8.590701562702774</v>
       </c>
       <c r="G21" t="n">
-        <v>8.591435204603899</v>
+        <v>8.590155972599414</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001332889038071272</v>
+        <v>-0.0005360117361894232</v>
       </c>
       <c r="I21" t="n">
-        <v>3.900471608497242</v>
+        <v>3.90108153986173</v>
       </c>
       <c r="J21" t="n">
-        <v>3.900338319593436</v>
+        <v>3.901617551597921</v>
       </c>
     </row>
     <row r="22">
@@ -1218,22 +1218,22 @@
         <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0001862730708876437</v>
+        <v>0.0006507738328966231</v>
       </c>
       <c r="F22" t="n">
-        <v>8.592395755480402</v>
+        <v>8.590509135046593</v>
       </c>
       <c r="G22" t="n">
-        <v>8.592582028551289</v>
+        <v>8.589858361213697</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001958514380580543</v>
+        <v>-0.0006411954657262125</v>
       </c>
       <c r="I22" t="n">
-        <v>3.899387347084103</v>
+        <v>3.901273967517911</v>
       </c>
       <c r="J22" t="n">
-        <v>3.899191495646045</v>
+        <v>3.901915162983638</v>
       </c>
     </row>
     <row r="23">
@@ -1254,22 +1254,22 @@
         <v>500</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0001350066607807322</v>
+        <v>-3.680631444021552e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>8.601825739755796</v>
+        <v>8.598516421995821</v>
       </c>
       <c r="G23" t="n">
-        <v>8.601690733095015</v>
+        <v>8.598553228310262</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0001254282936103216</v>
+        <v>4.638468161062619e-05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.889957362808708</v>
+        <v>3.893266680568683</v>
       </c>
       <c r="J23" t="n">
-        <v>3.890082791102319</v>
+        <v>3.893220295887073</v>
       </c>
     </row>
     <row r="24">
@@ -1290,22 +1290,22 @@
         <v>15000</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0008896016498924955</v>
+        <v>-0.0007601066350436716</v>
       </c>
       <c r="F24" t="n">
         <v>8.661178960255624</v>
       </c>
       <c r="G24" t="n">
-        <v>8.662068561905517</v>
+        <v>8.661939066890668</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008991800170629061</v>
+        <v>0.0007696850022140822</v>
       </c>
       <c r="I24" t="n">
         <v>3.83060414230888</v>
       </c>
       <c r="J24" t="n">
-        <v>3.829704962291817</v>
+        <v>3.829834457306667</v>
       </c>
     </row>
     <row r="25">
@@ -1326,22 +1326,22 @@
         <v>15000</v>
       </c>
       <c r="E25" t="n">
-        <v>4.401019474842757e-05</v>
+        <v>5.010335925401054e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>8.575125100422717</v>
+        <v>8.576294588038476</v>
       </c>
       <c r="G25" t="n">
-        <v>8.575081090227968</v>
+        <v>8.576244484679222</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.443182757801691e-05</v>
+        <v>-4.052499208359989e-05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.916658002141787</v>
+        <v>3.915488514526029</v>
       </c>
       <c r="J25" t="n">
-        <v>3.916692433969367</v>
+        <v>3.915529039518113</v>
       </c>
     </row>
     <row r="26">
@@ -1470,22 +1470,22 @@
         <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2038486883879615</v>
+        <v>0.2049855142443518</v>
       </c>
       <c r="F29" t="n">
-        <v>1.496690967630422</v>
+        <v>1.500451845148154</v>
       </c>
       <c r="G29" t="n">
-        <v>1.292842279242461</v>
+        <v>1.295466330903802</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.06521334484978483</v>
+        <v>-0.0663501707061751</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1450265740908228</v>
+        <v>0.141265696573091</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2102399189406077</v>
+        <v>0.2076158672792661</v>
       </c>
     </row>
     <row r="30">
@@ -1506,22 +1506,22 @@
         <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>0.208693497090665</v>
+        <v>0.2034650996178708</v>
       </c>
       <c r="F30" t="n">
-        <v>1.498793762559016</v>
+        <v>1.498866449158429</v>
       </c>
       <c r="G30" t="n">
-        <v>1.29010026546835</v>
+        <v>1.295401349540558</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.07005815355248832</v>
+        <v>-0.06482975607969407</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1429237791622293</v>
+        <v>0.1428510925628161</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2129819327147178</v>
+        <v>0.2076808486425104</v>
       </c>
     </row>
     <row r="31">
@@ -1542,22 +1542,22 @@
         <v>500</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1925984984834498</v>
+        <v>0.1942208672378989</v>
       </c>
       <c r="F31" t="n">
-        <v>1.504916102434916</v>
+        <v>1.504618972865841</v>
       </c>
       <c r="G31" t="n">
-        <v>1.312317603951466</v>
+        <v>1.310398105627942</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0539631549452731</v>
+        <v>-0.05558552369972222</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1368014392863288</v>
+        <v>0.1370985688554041</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1907645942316019</v>
+        <v>0.1926840925551263</v>
       </c>
     </row>
     <row r="32">
@@ -1578,22 +1578,22 @@
         <v>15000</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1758974875048437</v>
+        <v>0.1756683121044335</v>
       </c>
       <c r="F32" t="n">
         <v>1.52607594523611</v>
       </c>
       <c r="G32" t="n">
-        <v>1.350178457731267</v>
+        <v>1.350407633131677</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.03726214396666705</v>
+        <v>-0.03703296856625682</v>
       </c>
       <c r="I32" t="n">
         <v>0.1156415964851345</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1529037404518017</v>
+        <v>0.1526745650513914</v>
       </c>
     </row>
     <row r="33">
@@ -1614,22 +1614,22 @@
         <v>15000</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1670872244961159</v>
+        <v>0.1670286636616468</v>
       </c>
       <c r="F33" t="n">
-        <v>1.520522096418763</v>
+        <v>1.521656839140567</v>
       </c>
       <c r="G33" t="n">
-        <v>1.353434871922647</v>
+        <v>1.35462817547892</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02845188095793924</v>
+        <v>-0.02839332012347015</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1211954453024815</v>
+        <v>0.1200607025806777</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1496473262604208</v>
+        <v>0.148454022704148</v>
       </c>
     </row>
   </sheetData>
